--- a/biology/Zoologie/Barbican_de_Levaillant/Barbican_de_Levaillant.xlsx
+++ b/biology/Zoologie/Barbican_de_Levaillant/Barbican_de_Levaillant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pogonornis minor
 Le Barbican de Levaillant (Pogonornis minor) est une espèce d'oiseaux de la famille des Lybiidae, dont l'aire de répartition s'étend sur la Tanzanie, le Burundi, la République démocratique du Congo, la République du Congo, le Gabon, l'Angola, la Zambie et le Malawi.
@@ -513,7 +525,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes :
 P. minor macclounii (Shelley, 1899)
